--- a/Testing.xlsx
+++ b/Testing.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8265"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8265" tabRatio="626"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>Training sets used</t>
   </si>
@@ -33,6 +33,18 @@
   </si>
   <si>
     <t>Correct recognitions (/26)</t>
+  </si>
+  <si>
+    <t>Recognition Percentage</t>
+  </si>
+  <si>
+    <t>Number of points</t>
+  </si>
+  <si>
+    <t>Correct recognition (/26)</t>
+  </si>
+  <si>
+    <t>Recognition percentage</t>
   </si>
 </sst>
 </file>
@@ -85,6 +97,2101 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Recognition Percentage</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$2:$F$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-1514346272"/>
+        <c:axId val="-1514352256"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-1514346272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Number of training sets used</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1514352256"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-1514352256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Recognition Accuracy</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> (%)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1514346272"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average time taken (ms)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$2:$I$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2.33</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.98</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.09</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.7200000000000006</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.39</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.94</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14.57</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-1503983728"/>
+        <c:axId val="-1503960336"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-1503983728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Number of training sets used</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1503960336"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-1503960336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Average time taken (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1503983728"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>604837</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>300037</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -350,15 +2457,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -366,10 +2473,13 @@
         <v>2</v>
       </c>
       <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -377,10 +2487,13 @@
         <v>15</v>
       </c>
       <c r="F2">
+        <v>58</v>
+      </c>
+      <c r="I2">
         <v>2.33</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -388,10 +2501,13 @@
         <v>15</v>
       </c>
       <c r="F3">
+        <v>58</v>
+      </c>
+      <c r="I3">
         <v>3.98</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -399,10 +2515,189 @@
         <v>18</v>
       </c>
       <c r="F4">
+        <v>69</v>
+      </c>
+      <c r="I4">
         <v>6.09</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>19</v>
+      </c>
+      <c r="F5">
+        <v>73</v>
+      </c>
+      <c r="I5">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>23</v>
+      </c>
+      <c r="F6">
+        <v>88</v>
+      </c>
+      <c r="I6">
+        <v>8.11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>24</v>
+      </c>
+      <c r="F7">
+        <v>92</v>
+      </c>
+      <c r="I7">
+        <v>9.7200000000000006</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>24</v>
+      </c>
+      <c r="F8">
+        <v>92</v>
+      </c>
+      <c r="I8">
+        <v>11.39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>25</v>
+      </c>
+      <c r="F9">
+        <v>96</v>
+      </c>
+      <c r="I9">
+        <v>12.94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>26</v>
+      </c>
+      <c r="F10">
+        <v>100</v>
+      </c>
+      <c r="I10">
+        <v>14.57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" t="s">
+        <v>5</v>
+      </c>
+      <c r="G29" t="s">
+        <v>6</v>
+      </c>
+      <c r="J29" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>2</v>
+      </c>
+      <c r="D30">
+        <v>13</v>
+      </c>
+      <c r="J30">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>4</v>
+      </c>
+      <c r="D31">
+        <v>18</v>
+      </c>
+      <c r="J31">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>8</v>
+      </c>
+      <c r="D32">
+        <v>23</v>
+      </c>
+      <c r="J32">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>16</v>
+      </c>
+      <c r="D33">
+        <v>25</v>
+      </c>
+      <c r="J33">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="D34">
+        <v>26</v>
+      </c>
+      <c r="J34">
+        <v>14.59</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>64</v>
+      </c>
+      <c r="D35">
+        <v>24</v>
+      </c>
+      <c r="J35">
+        <v>52.72</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>128</v>
+      </c>
+      <c r="D36">
+        <v>26</v>
+      </c>
+      <c r="J36">
+        <v>262.57</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Testing.xlsx
+++ b/Testing.xlsx
@@ -301,11 +301,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1514346272"/>
-        <c:axId val="-1514352256"/>
+        <c:axId val="-720770496"/>
+        <c:axId val="-720769952"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1514346272"/>
+        <c:axId val="-720770496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -404,7 +404,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1514352256"/>
+        <c:crossAx val="-720769952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -412,7 +412,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1514352256"/>
+        <c:axId val="-720769952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -525,7 +525,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1514346272"/>
+        <c:crossAx val="-720770496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -776,11 +776,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1503983728"/>
-        <c:axId val="-1503960336"/>
+        <c:axId val="-720772128"/>
+        <c:axId val="-720759072"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1503983728"/>
+        <c:axId val="-720772128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -879,7 +879,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1503960336"/>
+        <c:crossAx val="-720759072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -887,7 +887,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1503960336"/>
+        <c:axId val="-720759072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -994,7 +994,955 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1503983728"/>
+        <c:crossAx val="-720772128"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Recognition percentage</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$30:$A$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$30:$G$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-594332576"/>
+        <c:axId val="-590424752"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-594332576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Number of points</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="out"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-590424752"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-590424752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Recognition accuracy (%)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-594332576"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$J$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average time taken (ms)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-8.543066491688539E-2"/>
+                  <c:y val="-4.394685039370079E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$30:$A$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$J$30:$J$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.21</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14.59</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>52.72</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>262.57</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-545363312"/>
+        <c:axId val="-594328768"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-545363312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Number of points</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="out"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-594328768"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-594328768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Average time taken (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-545363312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1123,6 +2071,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -2110,6 +3138,1038 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -2186,6 +4246,66 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>347662</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>42862</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2459,8 +4579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="P56" sqref="P56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2626,6 +4746,9 @@
       <c r="D30">
         <v>13</v>
       </c>
+      <c r="G30">
+        <v>50</v>
+      </c>
       <c r="J30">
         <v>0.19</v>
       </c>
@@ -2637,6 +4760,9 @@
       <c r="D31">
         <v>18</v>
       </c>
+      <c r="G31">
+        <v>69</v>
+      </c>
       <c r="J31">
         <v>0.28000000000000003</v>
       </c>
@@ -2648,6 +4774,9 @@
       <c r="D32">
         <v>23</v>
       </c>
+      <c r="G32">
+        <v>88</v>
+      </c>
       <c r="J32">
         <v>1.21</v>
       </c>
@@ -2659,6 +4788,9 @@
       <c r="D33">
         <v>25</v>
       </c>
+      <c r="G33">
+        <v>96</v>
+      </c>
       <c r="J33">
         <v>2.9</v>
       </c>
@@ -2670,6 +4802,9 @@
       <c r="D34">
         <v>26</v>
       </c>
+      <c r="G34">
+        <v>100</v>
+      </c>
       <c r="J34">
         <v>14.59</v>
       </c>
@@ -2681,6 +4816,9 @@
       <c r="D35">
         <v>24</v>
       </c>
+      <c r="G35">
+        <v>92</v>
+      </c>
       <c r="J35">
         <v>52.72</v>
       </c>
@@ -2691,6 +4829,9 @@
       </c>
       <c r="D36">
         <v>26</v>
+      </c>
+      <c r="G36">
+        <v>100</v>
       </c>
       <c r="J36">
         <v>262.57</v>
